--- a/budget_n_routing/DRAFT_Budget_CRII_Hasan_220215.xlsx
+++ b/budget_n_routing/DRAFT_Budget_CRII_Hasan_220215.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Proposals and Contracts\Hasan, Monowar\NSF\220215 CRII\1_Proposal\Draft Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06276FD4-4E33-4D96-8DE0-38CE97E3D9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863B52B1-E7F5-48C3-A772-47E645C797A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>Other Personnel</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Hrs/Week</t>
   </si>
   <si>
-    <t>#of UGs</t>
-  </si>
-  <si>
     <t>Checked by:</t>
   </si>
   <si>
@@ -403,6 +400,12 @@
   </si>
   <si>
     <t xml:space="preserve">  Journal Publications (IEEE Access)</t>
+  </si>
+  <si>
+    <t>#of UGs (Y1)</t>
+  </si>
+  <si>
+    <t># of UGs (Y2)</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,6 @@
     <xf numFmtId="38" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -792,6 +794,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1219,7 @@
     <col min="6" max="6" width="2.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6" customWidth="1"/>
     <col min="10" max="11" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -1228,7 +1231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1237,13 +1240,13 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="P1" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1252,7 +1255,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="P2" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="20">
         <v>9031.1200000000008</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="4"/>
       <c r="G3" s="7"/>
@@ -1269,7 +1272,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="26">
         <v>90000</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4"/>
       <c r="G4" s="7"/>
@@ -1286,7 +1289,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="1">
         <f>+Q2/Q3</f>
@@ -1300,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>19</v>
@@ -1330,7 +1333,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="14"/>
       <c r="P5" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="2">
         <f>CEILING(Q4,0.005)</f>
@@ -1358,20 +1361,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="21">
         <f>ROUND((+I7*K7*M7)+(+I7*L7*M7),0)</f>
-        <v>4750</v>
+        <v>8079</v>
       </c>
       <c r="D7" s="21">
         <f>ROUND((C7*$H$5),0)</f>
-        <v>4893</v>
+        <v>8321</v>
       </c>
       <c r="E7" s="22">
         <f>SUM(C7:D7)</f>
-        <v>9643</v>
+        <v>16400</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23">
@@ -1388,36 +1391,36 @@
       <c r="J7" s="24">
         <v>9</v>
       </c>
-      <c r="K7" s="100">
-        <v>0.5</v>
+      <c r="K7" s="112">
+        <v>0.80789999999999995</v>
       </c>
       <c r="L7" s="24">
         <v>0</v>
       </c>
       <c r="M7" s="25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="96">
         <v>0.18198</v>
       </c>
       <c r="C8" s="21">
         <f>ROUND((C7*$B$8),0)</f>
-        <v>864</v>
+        <v>1470</v>
       </c>
       <c r="D8" s="21">
         <f>ROUND((D7*$B$8),0)</f>
-        <v>890</v>
+        <v>1514</v>
       </c>
       <c r="E8" s="22">
         <f>SUM(C8:D8)</f>
-        <v>1754</v>
+        <v>2984</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="27" t="s">
@@ -1451,7 +1454,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="21">
@@ -1491,7 +1494,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="95">
         <v>0.37</v>
@@ -1537,14 +1540,14 @@
       <c r="M12" s="25"/>
       <c r="N12" s="30"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="104" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="105"/>
+      <c r="P12" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="104"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="21">
@@ -1581,14 +1584,14 @@
       </c>
       <c r="N13" s="30"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="107"/>
+      <c r="P13" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="106"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="95">
         <v>0.37</v>
@@ -1617,10 +1620,10 @@
       <c r="M14" s="25"/>
       <c r="N14" s="30"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="107"/>
+      <c r="P14" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="106"/>
     </row>
     <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -1629,15 +1632,15 @@
       <c r="B15" s="17"/>
       <c r="C15" s="32">
         <f>SUM(C7:C14)</f>
-        <v>5614</v>
+        <v>9549</v>
       </c>
       <c r="D15" s="32">
         <f>SUM(D7:D14)</f>
-        <v>5783</v>
+        <v>9835</v>
       </c>
       <c r="E15" s="32">
         <f>SUM(E7:E14)</f>
-        <v>11397</v>
+        <v>19384</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
@@ -1649,10 +1652,10 @@
       <c r="M15" s="35"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="109">
+      <c r="P15" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" s="108">
         <f>25000-Q16</f>
         <v>23462</v>
       </c>
@@ -1675,10 +1678,10 @@
       <c r="M16" s="35"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="107" t="s">
+      <c r="P16" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="109">
+      <c r="Q16" s="108">
         <v>1538</v>
       </c>
     </row>
@@ -1706,14 +1709,14 @@
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="110">
+      <c r="P17" s="106"/>
+      <c r="Q17" s="109">
         <v>25000</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="23">
@@ -1729,25 +1732,25 @@
         <v>46924</v>
       </c>
       <c r="F18" s="41"/>
-      <c r="G18" s="102">
+      <c r="G18" s="101">
         <v>52</v>
       </c>
-      <c r="H18" s="103" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="102">
+      <c r="H18" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="101">
         <v>1</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="P18" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="109">
+      <c r="P18" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q18" s="108">
         <f>+Q15*0.00968</f>
         <v>227.11215999999999</v>
       </c>
@@ -1774,17 +1777,17 @@
       <c r="F19" s="41"/>
       <c r="G19" s="27"/>
       <c r="H19" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="P19" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="112">
+      <c r="P19" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="111">
         <f>+Q17+Q18</f>
         <v>25227.112160000001</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>1538.24</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="23">
@@ -1891,7 +1894,7 @@
       <c r="F23" s="41"/>
       <c r="G23" s="27"/>
       <c r="H23" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="9"/>
@@ -1942,12 +1945,14 @@
         <v>17</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="J25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
@@ -1961,12 +1966,12 @@
         <v>11520</v>
       </c>
       <c r="D26" s="21">
-        <f>+C26</f>
-        <v>11520</v>
+        <f>G26*J26*K26*H26</f>
+        <v>17280</v>
       </c>
       <c r="E26" s="22">
         <f>SUM(C26:D26)</f>
-        <v>23040</v>
+        <v>28800</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="48">
@@ -1981,10 +1986,12 @@
       <c r="J26" s="9">
         <v>40</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9">
+        <v>3</v>
+      </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="O26" s="101"/>
+      <c r="O26" s="100"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
@@ -1999,11 +2006,11 @@
       </c>
       <c r="D27" s="21">
         <f>ROUND((D26*$B$27),0)</f>
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E27" s="22">
         <f>SUM(C27:D27)</f>
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="27"/>
@@ -2025,11 +2032,11 @@
       </c>
       <c r="D28" s="32">
         <f>SUM(D18:D27)</f>
-        <v>37223</v>
+        <v>43038</v>
       </c>
       <c r="E28" s="32">
         <f>SUM(E18:E27)</f>
-        <v>74391</v>
+        <v>80206</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="27" t="s">
@@ -2064,15 +2071,15 @@
       <c r="B30" s="18"/>
       <c r="C30" s="32">
         <f>ROUND((C7+C10+C13+C18+C22+C26),0)</f>
-        <v>39732</v>
+        <v>43061</v>
       </c>
       <c r="D30" s="32">
         <f>ROUND((D7+D10+D13+D18+D22+D26),0)</f>
-        <v>39875</v>
+        <v>49063</v>
       </c>
       <c r="E30" s="32">
         <f>ROUND((E7+E10+E13+E18+E22+E26),0)</f>
-        <v>79607</v>
+        <v>92124</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="27"/>
@@ -2090,15 +2097,15 @@
       <c r="B31" s="18"/>
       <c r="C31" s="32">
         <f>ROUND((C8+C11+C14+C19+C20+C23+C24+C27),0)</f>
-        <v>3050</v>
+        <v>3656</v>
       </c>
       <c r="D31" s="32">
         <f>ROUND((D8+D11+D14+D19+D20+D23+D24+D27),0)</f>
-        <v>3131</v>
+        <v>3810</v>
       </c>
       <c r="E31" s="32">
         <f>ROUND((E8+E11+E14+E19+E20+E23+E24+E27),0)</f>
-        <v>6181</v>
+        <v>7466</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="24"/>
@@ -2116,15 +2123,15 @@
       <c r="B32" s="51"/>
       <c r="C32" s="52">
         <f>SUM(C30:C31)</f>
-        <v>42782</v>
+        <v>46717</v>
       </c>
       <c r="D32" s="52">
         <f t="shared" ref="D32" si="0">SUM(D30:D31)</f>
-        <v>43006</v>
+        <v>52873</v>
       </c>
       <c r="E32" s="52">
         <f>SUM(E30:E31)</f>
-        <v>85788</v>
+        <v>99590</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="27" t="s">
@@ -2259,7 +2266,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O38" s="3"/>
     </row>
@@ -2282,10 +2289,10 @@
         <v>33</v>
       </c>
       <c r="J39" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39" s="40" t="s">
         <v>34</v>
@@ -2294,13 +2301,13 @@
         <v>35</v>
       </c>
       <c r="N39" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O39" s="63"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="44">
@@ -2407,7 +2414,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="21"/>
@@ -2415,10 +2422,10 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="40" t="s">
         <v>48</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2428,7 +2435,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="23">
@@ -2475,7 +2482,7 @@
     </row>
     <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="51"/>
       <c r="C47" s="52">
@@ -2535,7 +2542,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="23">
@@ -2602,7 +2609,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="9"/>
@@ -2619,7 +2626,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="23">
@@ -2643,7 +2650,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="23">
@@ -2689,7 +2696,7 @@
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="51"/>
       <c r="C57" s="52">
@@ -2730,7 +2737,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
@@ -2769,7 +2776,7 @@
     </row>
     <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="51"/>
       <c r="C61" s="52">
@@ -2801,7 +2808,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -2820,16 +2827,16 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>58</v>
-      </c>
       <c r="J63" s="98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -2837,7 +2844,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="74">
@@ -2864,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -2872,7 +2879,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="79">
@@ -2896,7 +2903,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="79">
@@ -2920,7 +2927,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="79">
@@ -2944,7 +2951,7 @@
     </row>
     <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="51"/>
       <c r="C68" s="52">
@@ -2990,15 +2997,15 @@
       <c r="B70" s="51"/>
       <c r="C70" s="52">
         <f>ROUND((C32+C36+C42+C47+C51+C57+C61+C68),0)</f>
-        <v>53340</v>
+        <v>57275</v>
       </c>
       <c r="D70" s="52">
         <f>ROUND((D32+D36+D42+D47+D51+D57+D61+D68),0)</f>
-        <v>55630</v>
+        <v>65497</v>
       </c>
       <c r="E70" s="52">
         <f>SUM(C70:D70)</f>
-        <v>108970</v>
+        <v>122772</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="27"/>
@@ -3015,24 +3022,24 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="21">
         <f>ROUND((C70-C36-C47-C61-C64),0)</f>
-        <v>46461</v>
+        <v>50396</v>
       </c>
       <c r="D71" s="21">
         <f>ROUND((D70-D36-D47-D61-D64),0)</f>
-        <v>48545</v>
+        <v>58412</v>
       </c>
       <c r="E71" s="22">
         <f>SUM(C71:D71)</f>
-        <v>95006</v>
+        <v>108808</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H71" s="84"/>
       <c r="I71" s="84"/>
@@ -3041,7 +3048,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O71" s="3"/>
     </row>
@@ -3054,15 +3061,15 @@
       </c>
       <c r="C72" s="21">
         <f>ROUND((C71*$A$72),0)</f>
-        <v>22301</v>
+        <v>24190</v>
       </c>
       <c r="D72" s="21">
         <f t="shared" ref="D72" si="6">ROUND((D71*$A$72),0)</f>
-        <v>23302</v>
+        <v>28038</v>
       </c>
       <c r="E72" s="22">
         <f>SUM(C72:D72)</f>
-        <v>45603</v>
+        <v>52228</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="27"/>
@@ -3080,15 +3087,15 @@
       <c r="B73" s="86"/>
       <c r="C73" s="52">
         <f t="shared" ref="C73:D73" si="7">SUM(C70+C72)</f>
-        <v>75641</v>
+        <v>81465</v>
       </c>
       <c r="D73" s="52">
         <f t="shared" si="7"/>
-        <v>78932</v>
+        <v>93535</v>
       </c>
       <c r="E73" s="52">
         <f>SUM(E70+E72)</f>
-        <v>154573</v>
+        <v>175000</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="87">
@@ -3096,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I73" s="84"/>
       <c r="J73" s="88">
@@ -3121,7 +3128,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C75" s="90"/>
       <c r="D75" s="90"/>
@@ -3136,7 +3143,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="90"/>
       <c r="D76" s="90"/>
@@ -3163,7 +3170,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="91"/>
       <c r="D78" s="91"/>
@@ -3184,47 +3191,47 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
